--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3492.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3492.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.830642802705359</v>
+        <v>1.64723265171051</v>
       </c>
       <c r="B1">
-        <v>1.299946716642374</v>
+        <v>3.612305402755737</v>
       </c>
       <c r="C1">
-        <v>3.302062801177388</v>
+        <v>3.222667455673218</v>
       </c>
       <c r="D1">
-        <v>6.200787994212778</v>
+        <v>2.60638952255249</v>
       </c>
       <c r="E1">
-        <v>2.160609774013875</v>
+        <v>1.662910103797913</v>
       </c>
     </row>
   </sheetData>
